--- a/config_2.9/act_ty_phb_config.xlsx
+++ b/config_2.9/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>line|</t>
   </si>
@@ -115,6 +115,37 @@
     <t>actp_no_cjj_gej_exchange</t>
   </si>
   <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_004_rank</t>
+  </si>
+  <si>
     <r>
       <t>act_004</t>
     </r>
@@ -131,11 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycs_005_jybb_rank</t>
+    <t>actp_cjj_gej_exchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +213,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,10 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,13 +620,13 @@
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>1612828800</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>1613404799</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -631,25 +649,60 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1613433600</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1614009599</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1612828800</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1613404799</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1613433600</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1614009599</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_2.9/act_ty_phb_config.xlsx
+++ b/config_2.9/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>line|</t>
   </si>
@@ -110,6 +110,9 @@
       <t>_dlphb</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,7 +593,9 @@
       <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_2.9/act_ty_phb_config.xlsx
+++ b/config_2.9/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>line|</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>actp_no_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <r>
+      <t>act_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,6 +620,36 @@
       <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1613433600</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1614009599</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_2.9/act_ty_phb_config.xlsx
+++ b/config_2.9/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>line|</t>
   </si>
@@ -104,6 +104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,6 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,6 +166,18 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_dlphb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,6 +713,36 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I9" s="2" t="s">

--- a/config_2.9/act_ty_phb_config.xlsx
+++ b/config_2.9/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>line|</t>
   </si>
@@ -124,51 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>act_005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxlzb_004_rank</t>
-  </si>
-  <si>
-    <r>
-      <t>act_004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,7 +136,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_006_dlphb</t>
+    <t>act_004_dlphb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_005_dlphb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +535,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,15 +627,17 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3">
-        <v>1612828800</v>
+        <v>1613433600</v>
       </c>
       <c r="G3" s="3">
-        <v>1613404799</v>
+        <v>1614009599</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -680,9 +645,7 @@
       <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -695,58 +658,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
-        <v>1613433600</v>
+        <v>1614038400</v>
       </c>
       <c r="G4" s="3">
-        <v>1614009599</v>
+        <v>1614614399</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
